--- a/01-Excel/2/Activities/03-Ins_ColorCounter/Solved/FavoriteColors.xlsx
+++ b/01-Excel/2/Activities/03-Ins_ColorCounter/Solved/FavoriteColors.xlsx
@@ -1,30 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\OneDrive\Documents\WorkAndSchool\TeachingAssistant\DataViz\DataViz-Lesson-Plans\01-Lesson-Plans\01-Excel\2\Activities\03-Ins_ColorCounter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johntaylor/2021_2022_CWRU_BootCamp/cwru-cle-virt-data-pt-07-2021-u-c/01-Excel/2/Activities/03-Ins_ColorCounter/Solved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="2430A0AA514001CEA83802CF0BC2C5BE829E8387" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{1E5409AB-41C6-45CE-8D07-DD66BF3A3C31}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14417B3-A716-4D4D-8BDA-ED2BAAFE800E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24338" yWindow="-25620" windowWidth="22538" windowHeight="20483" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20440" yWindow="3760" windowWidth="42600" windowHeight="16140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Favorite Colors" sheetId="1" r:id="rId1"/>
+    <sheet name="Favorite Colors (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="Colors" localSheetId="1">'Favorite Colors (2)'!$A$2:$A$30</definedName>
     <definedName name="Colors">'Favorite Colors'!$A$2:$A$30</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -34,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="9">
   <si>
     <t>Favorite Color</t>
   </si>
@@ -156,7 +167,175 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -179,53 +358,11 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{90DEA3A9-8E55-4E35-9EC7-7A73FC6D615E}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="25"/>
+      <tableStyleElement type="headerRow" dxfId="24"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -538,17 +675,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="14.33203125" style="3" customWidth="1"/>
     <col min="3" max="8" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -571,7 +708,317 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,6),"Red","Blue","Yellow","Green","Purple","Orange")</f>
+        <v>Yellow</v>
+      </c>
+      <c r="C2">
+        <f ca="1">COUNTIF(Colors,"Red")</f>
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <f ca="1">COUNTIF(Colors,"Blue")</f>
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <f ca="1">COUNTIF(Colors,"Yellow")</f>
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <f ca="1">COUNTIF(Colors,"Purple")</f>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f ca="1">COUNTIF(Colors,"Orange")</f>
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <f ca="1">COUNTIF(Colors,"Green")</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="str">
+        <f t="shared" ref="A3:A30" ca="1" si="0">CHOOSE(RANDBETWEEN(1,6),"Red","Blue","Yellow","Green","Purple","Orange")</f>
+        <v>Blue</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,6),"Red","Blue","Yellow","Green","Purple","Orange")</f>
+        <v>Yellow</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Green</v>
+      </c>
+      <c r="C5" t="b">
+        <f ca="1">IF(C2&gt;5,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <f t="shared" ref="D5:H5" ca="1" si="1">IF(D2&gt;5,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K5" t="b">
+        <f ca="1">IF(AND(H5,NOT(C5)), TRUE, FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Green</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Green</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yellow</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yellow</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Green</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Purple</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Orange</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Red</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yellow</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yellow</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Green</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Green</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Blue</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Orange</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Green</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Green</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Blue</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Red</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Orange</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Blue</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yellow</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Green</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yellow</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Green</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Green</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+      <formula>"Green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+      <formula>"Orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+      <formula>"Blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+      <formula>"Purple"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+      <formula>"Red"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+      <formula>"Yellow"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC30EEFA-1AD9-3349-866B-F9FB168B22CB}">
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="14.33203125" style="3" customWidth="1"/>
+    <col min="3" max="8" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,6),"Red","Blue","Yellow","Green","Purple","Orange")</f>
         <v>Blue</v>
@@ -582,15 +1029,15 @@
       </c>
       <c r="D2">
         <f ca="1">COUNTIF(Colors,"Blue")</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <f ca="1">COUNTIF(Colors,"Yellow")</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F2">
         <f ca="1">COUNTIF(Colors,"Purple")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <f ca="1">COUNTIF(Colors,"Orange")</f>
@@ -598,19 +1045,19 @@
       </c>
       <c r="H2">
         <f ca="1">COUNTIF(Colors,"Green")</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="str">
-        <f t="shared" ref="A3:A30" ca="1" si="0">CHOOSE(RANDBETWEEN(1,6),"Red","Blue","Yellow","Green","Purple","Orange")</f>
-        <v>Green</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" ref="A3:C30" ca="1" si="0">CHOOSE(RANDBETWEEN(1,6),"Red","Blue","Yellow","Green","Purple","Orange")</f>
+        <v>Green</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,6),"Red","Blue","Yellow","Green","Purple","Orange")</f>
-        <v>Green</v>
+        <v>Yellow</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -634,10 +1081,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Yellow</v>
+        <v>Blue</v>
       </c>
       <c r="C5" t="b">
         <f ca="1">IF(C2&gt;5,TRUE,FALSE)</f>
@@ -645,11 +1092,11 @@
       </c>
       <c r="D5" t="b">
         <f t="shared" ref="D5:H5" ca="1" si="1">IF(D2&gt;5,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="b">
         <f t="shared" ca="1" si="1"/>
@@ -668,151 +1115,159 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
+        <v>Purple</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Blue</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yellow</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Blue</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Red</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Red</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Red</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Green</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Blue</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>Orange</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="str">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Green</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Yellow</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="4" t="str">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Blue</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Yellow</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="4" t="str">
+      <c r="C19" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Orange</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Blue</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="str">
+      <c r="C20" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Blue</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Orange</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Purple</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="str">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Orange</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="str">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Blue</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Orange</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Purple</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="str">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Purple</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Green</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Orange</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yellow</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" s="4" t="str">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Blue</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yellow</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yellow</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Red</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A21" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yellow</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A22" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Green</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A23" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Red</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A24" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Blue</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A25" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Orange</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A26" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Purple</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A27" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Green</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A28" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Red</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Purple</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+        <v>Green</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Red</v>
@@ -820,22 +1275,62 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
       <formula>"Orange"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"Blue"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"Purple"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
+      <formula>"Yellow"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+      <formula>"Green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+      <formula>"Orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"Blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"Purple"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+      <formula>"Red"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+      <formula>"Yellow"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"Green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"Orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"Purple"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+      <formula>"Red"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/01-Excel/2/Activities/03-Ins_ColorCounter/Solved/FavoriteColors.xlsx
+++ b/01-Excel/2/Activities/03-Ins_ColorCounter/Solved/FavoriteColors.xlsx
@@ -1,30 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\OneDrive\Documents\WorkAndSchool\TeachingAssistant\DataViz\DataViz-Lesson-Plans\01-Lesson-Plans\01-Excel\2\Activities\03-Ins_ColorCounter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johntaylor/2021_2022_CWRU_BootCamp/cwru-cle-virt-data-pt-07-2021-u-c/01-Excel/2/Activities/03-Ins_ColorCounter/Solved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="2430A0AA514001CEA83802CF0BC2C5BE829E8387" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{1E5409AB-41C6-45CE-8D07-DD66BF3A3C31}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B77E8E-B2F8-A344-BF54-93BE3AC404F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24338" yWindow="-25620" windowWidth="22538" windowHeight="20483" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="22920" yWindow="2120" windowWidth="28800" windowHeight="16140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Favorite Colors" sheetId="1" r:id="rId1"/>
+    <sheet name="Favorite Colors (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="Colors" localSheetId="1">'Favorite Colors (2)'!$A$2:$A$30</definedName>
     <definedName name="Colors">'Favorite Colors'!$A$2:$A$30</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -34,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
   <si>
     <t>Favorite Color</t>
   </si>
@@ -61,6 +72,15 @@
   </si>
   <si>
     <t>All is Good (Mostly)</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Blue</t>
   </si>
 </sst>
 </file>
@@ -156,7 +176,175 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -179,53 +367,11 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{90DEA3A9-8E55-4E35-9EC7-7A73FC6D615E}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="25"/>
+      <tableStyleElement type="headerRow" dxfId="24"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -538,17 +684,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="14.33203125" style="3" customWidth="1"/>
     <col min="3" max="8" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -571,10 +717,320 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,6),"Red","Blue","Yellow","Green","Purple","Orange")</f>
+        <v>Green</v>
+      </c>
+      <c r="C2">
+        <f ca="1">COUNTIF(Colors,"Red")</f>
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <f ca="1">COUNTIF(Colors,"Blue")</f>
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <f ca="1">COUNTIF(Colors,"Yellow")</f>
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <f ca="1">COUNTIF(Colors,"Purple")</f>
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <f ca="1">COUNTIF(Colors,"Orange")</f>
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <f ca="1">COUNTIF(Colors,"Green")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="str">
+        <f t="shared" ref="A3:A30" ca="1" si="0">CHOOSE(RANDBETWEEN(1,6),"Red","Blue","Yellow","Green","Purple","Orange")</f>
+        <v>Purple</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,6),"Red","Blue","Yellow","Green","Purple","Orange")</f>
+        <v>Purple</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>Blue</v>
+      </c>
+      <c r="C5" t="b">
+        <f ca="1">IF(C2&gt;5,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <f t="shared" ref="D5:H5" ca="1" si="1">IF(D2&gt;5,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <f ca="1">IF(AND(H5,NOT(C5)), TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Blue</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Green</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Orange</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Green</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Orange</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Orange</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Purple</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Orange</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Green</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Green</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Blue</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Red</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Blue</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Red</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yellow</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Purple</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Purple</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Blue</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Red</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yellow</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Blue</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Blue</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yellow</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Red</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Red</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+      <formula>"Green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+      <formula>"Orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+      <formula>"Blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+      <formula>"Purple"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+      <formula>"Red"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+      <formula>"Yellow"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC30EEFA-1AD9-3349-866B-F9FB168B22CB}">
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="14.33203125" style="3" customWidth="1"/>
+    <col min="3" max="8" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,6),"Red","Blue","Yellow","Green","Purple","Orange")</f>
+        <v>Orange</v>
       </c>
       <c r="C2">
         <f ca="1">COUNTIF(Colors,"Red")</f>
@@ -582,35 +1038,34 @@
       </c>
       <c r="D2">
         <f ca="1">COUNTIF(Colors,"Blue")</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <f ca="1">COUNTIF(Colors,"Yellow")</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2">
         <f ca="1">COUNTIF(Colors,"Purple")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <f ca="1">COUNTIF(Colors,"Orange")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <f ca="1">COUNTIF(Colors,"Green")</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="str">
-        <f t="shared" ref="A3:A30" ca="1" si="0">CHOOSE(RANDBETWEEN(1,6),"Red","Blue","Yellow","Green","Purple","Orange")</f>
-        <v>Green</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="4" t="str">
-        <f ca="1">CHOOSE(RANDBETWEEN(1,6),"Red","Blue","Yellow","Green","Purple","Orange")</f>
-        <v>Green</v>
+        <f t="shared" ref="A3:C30" ca="1" si="0">CHOOSE(RANDBETWEEN(1,6),"Red","Blue","Yellow","Green","Purple","Orange")</f>
+        <v>Blue</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -634,10 +1089,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Yellow</v>
+        <v>Green</v>
       </c>
       <c r="C5" t="b">
         <f ca="1">IF(C2&gt;5,TRUE,FALSE)</f>
@@ -661,181 +1116,235 @@
       </c>
       <c r="H5" t="b">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="b">
         <f ca="1">IF(AND(H5,NOT(C5)), TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
+        <v>Green</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Purple</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Purple</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>Orange</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="str">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Green</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Green</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Yellow</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="4" t="str">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Yellow</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Blue</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="str">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yellow</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Green</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yellow</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Purple</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="str">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Purple</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Orange</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="str">
+      <c r="C19" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Purple</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Purple</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="4" t="str">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yellow</v>
+      </c>
+      <c r="C20" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Green</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="4" t="str">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Orange</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="4" t="str">
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Green</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Red</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Red</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Red</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Yellow</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Blue</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yellow</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yellow</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" s="4" t="str">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Green</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Orange</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Red</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A21" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yellow</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A22" s="4" t="str">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Green</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A23" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Red</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A24" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Blue</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A25" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Orange</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A26" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Purple</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A27" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Green</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A28" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Red</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A29" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Purple</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A30" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Red</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
       <formula>"Orange"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"Blue"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"Purple"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
+      <formula>"Yellow"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+      <formula>"Green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+      <formula>"Orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"Blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"Purple"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+      <formula>"Red"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+      <formula>"Yellow"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"Green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"Orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"Purple"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+      <formula>"Red"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
   </conditionalFormatting>
